--- a/biology/Botanique/Tillandsia_pungens/Tillandsia_pungens.xlsx
+++ b/biology/Botanique/Tillandsia_pungens/Tillandsia_pungens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pungens Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète pungens signifie « piquante » et se rapporte aux feuilles et bractées rigides et pointues.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pungens Mez, in C.DC., Monogr. Phan. 9: 684, n° 23 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis utrinque sed praesertim subtus tessellatim lepidibus albidis, adpressis dense obtectis ; inflorescentia digitatim e spicis paucis maximis, flabellatis, valde compressis utraque facie planiusculis composita ; bracteis florigeris dense imbricatis, dorso glabris laevibusque, apice obtusiusculis, sepala permaniteste superantibus ; floribus erectis ; sepalis antico libero reliquis binis ad 23 mm. connatis, peracutis ; stylo perlongo. »
-Type : leg. Wagner, n° 53 ; Panamá ; Herb. Goetting., Monac[1].
+Type : leg. Wagner, n° 53 ; Panamá ; Herb. Goetting., Monac.
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia fasciculata Sw[2],[3].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia fasciculata Sw,.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +629,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tillandsia_pungens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pungens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Biotype : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 Habitat : ?
@@ -613,37 +670,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tillandsia_pungens</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_pungens</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique centrale :
- Panama[1]</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -665,10 +691,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique centrale :
+ Panama</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_pungens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pungens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
